--- a/biology/Médecine/Zygmunt_Laskowski/Zygmunt_Laskowski.xlsx
+++ b/biology/Médecine/Zygmunt_Laskowski/Zygmunt_Laskowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zygmunt Laskowski (Sigismond Laskowski), né le 19 janvier 1841 à Varsovie et mort le 15 avril 1928, à Genève, est un médecin polonais.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entreprend ses études à l'université de Varsovie, en 1863 il prend part à l'insurrection de janvier, après sa chute il s'exile en France. Il complète ses études à Paris et Londres (1864-1866). En 1866 il invente un nouveau procédé de l'embaumement et de conservation de pièces anatomiques [réf. souhaitée]. Pour cette invention il reçoit une médaille à l'exposition universelle de 1867 et à l'exposition universelle de 1878, ainsi qu'une médaille à Cracovie en 1869.
-Dans les années 1869 - 1875 il est maître de conférences d'anatomie et de chirurgie à la faculté de médecine de Paris. Il participe à la guerre de 1870 en tant que chef chirurgien d'une ambulance, ensuite il prend part au siège de Paris. En 1875 il s'installe à Genève invité par le conseil d'État du canton. Il fonde à Genève un musée anatomique. Il est un membre de la Ligue Nationale (Liga Narodowa) une organisation clandestine patriotique polonaise[1].
-Astronome amateur, il est le premier découvreur de la nova V603 Aquilae, qu'il observe le 9 juin 1918[2].
+Dans les années 1869 - 1875 il est maître de conférences d'anatomie et de chirurgie à la faculté de médecine de Paris. Il participe à la guerre de 1870 en tant que chef chirurgien d'une ambulance, ensuite il prend part au siège de Paris. En 1875 il s'installe à Genève invité par le conseil d'État du canton. Il fonde à Genève un musée anatomique. Il est un membre de la Ligue Nationale (Liga Narodowa) une organisation clandestine patriotique polonaise.
+Astronome amateur, il est le premier découvreur de la nova V603 Aquilae, qu'il observe le 9 juin 1918.
 En 1900 l'université Jagellonne de Cracovie lui décerne le titre de Docteur honoris causa.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les procédés de conservation des pièces anatomiques (1885)
 L’embaumement et la conservation des sujets et des préparations anatomiques (1886)
